--- a/biology/Botanique/Hymenophyllum_hayatai/Hymenophyllum_hayatai.xlsx
+++ b/biology/Botanique/Hymenophyllum_hayatai/Hymenophyllum_hayatai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum hayatai est une fougère de la famille des Hyménophyllacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite en 1908 par Bunzo Hayata sous le nom de Hymenophyllum constrictum, homonyme de Hymenophyllum constrictum Christ (1904), fougère du Costa Rica. Genkei Masamune l'a renommée en l'honneur de celui qui a effectué sa diagnose.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hymenophyllum hayatai appartient au sous-genre Mecodium.
 Cette espèce a les caractéristiques suivantes :
@@ -579,7 +595,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette fougère, plutôt épiphyte de troncs d'arbres, est présente en Chine (Taïwan).
 </t>
